--- a/example/batchConvert/策划表/itemWired.xlsx
+++ b/example/batchConvert/策划表/itemWired.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luyi/splan-git/xlsx-fbs/example/singleConvert/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luyi/splan-git/xlsx-fbs/example/batchConvert/策划表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F894A0B7-85AD-A24C-804C-61F6CE396FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B660F3-9938-994C-841E-3351DFA112EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30640" yWindow="2340" windowWidth="28100" windowHeight="17360" activeTab="4" xr2:uid="{17ACE23F-0396-854A-ACC1-061B131E8100}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{17ACE23F-0396-854A-ACC1-061B131E8100}"/>
   </bookViews>
   <sheets>
-    <sheet name="item" sheetId="1" r:id="rId1"/>
+    <sheet name="itemWired" sheetId="1" r:id="rId1"/>
     <sheet name="property" sheetId="2" r:id="rId2"/>
     <sheet name="enum@Quality" sheetId="5" r:id="rId3"/>
-    <sheet name="struct@Test" sheetId="6" r:id="rId4"/>
+    <sheet name="struct@StructTest" sheetId="6" r:id="rId4"/>
     <sheet name="enum@SpecialDropType" sheetId="7" r:id="rId5"/>
     <sheet name="table@SpecialDrop" sheetId="3" r:id="rId6"/>
     <sheet name="property@SpecialDrop" sheetId="4" r:id="rId7"/>
@@ -291,10 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>struct@Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试表向量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -462,10 +458,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[struct@Test]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类型为struct@的会取对应的sheet作为类型定义，然后用 { key: value, key: [value] … } 这种 json 结构来填写数据，可以省略花括号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -487,6 +479,14 @@
   </si>
   <si>
     <t>第一列是枚举名，第二列是类型（必须填）， 第三列是枚举值（可省略），后面几列可以随意填写备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct@StructTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[struct@StructTest]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -928,10 +928,10 @@
         <v>60</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1014,10 +1014,10 @@
         <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1037,10 +1037,10 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1054,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1079,7 +1079,7 @@
         <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1169,7 +1169,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1186,7 +1186,7 @@
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1196,11 +1196,11 @@
       <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c r="C9" t="s">
-        <v>62</v>
+      <c r="C9" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1214,39 +1214,42 @@
         <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
         <v>63</v>
       </c>
-      <c r="B11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
-      </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" t="s">
         <v>105</v>
-      </c>
-      <c r="F12" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{526E0FE7-FEB6-D741-8856-DC31683B1902}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1256,7 +1259,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1266,13 +1269,13 @@
         <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1280,7 +1283,7 @@
         <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1294,13 +1297,13 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1308,7 +1311,7 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -1319,7 +1322,7 @@
         <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1335,42 +1338,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D628769-CA71-E54D-AB28-7747354854CE}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
         <v>87</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1383,7 +1386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B922E45-A982-984E-8C93-8C37803A9626}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1391,25 +1394,25 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1442,10 +1445,10 @@
         <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1453,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2">
         <v>10015</v>
@@ -1473,7 +1476,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3">
         <v>10016</v>
@@ -1493,7 +1496,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4">
         <v>43</v>
@@ -1513,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>112</v>
@@ -1533,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6">
         <v>45</v>
@@ -1553,7 +1556,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1610,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1637,13 +1640,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
         <v>71</v>
       </c>
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5">
         <v>0.5</v>
@@ -1651,13 +1654,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
         <v>91</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1685,13 +1688,13 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" t="s">
-        <v>101</v>
-      </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1702,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1716,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1730,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1744,31 +1747,31 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -1776,10 +1779,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
         <v>94</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1793,7 +1796,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/example/batchConvert/策划表/itemWired.xlsx
+++ b/example/batchConvert/策划表/itemWired.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luyi/splan-git/xlsx-fbs/example/batchConvert/策划表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B660F3-9938-994C-841E-3351DFA112EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA9B46D-553F-3C4B-99F8-D974B3CB6E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{17ACE23F-0396-854A-ACC1-061B131E8100}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{17ACE23F-0396-854A-ACC1-061B131E8100}"/>
   </bookViews>
   <sheets>
     <sheet name="itemWired" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
   <si>
     <t>道具id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -487,6 +487,10 @@
   </si>
   <si>
     <t>[struct@StructTest]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1053,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D200DDE-BF23-1848-81C7-B5C01918BC7E}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1073,7 +1077,7 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="E1" t="s">
         <v>27</v>
@@ -1338,7 +1342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D628769-CA71-E54D-AB28-7747354854CE}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>

--- a/example/batchConvert/策划表/itemWired.xlsx
+++ b/example/batchConvert/策划表/itemWired.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luyi/splan-git/xlsx-fbs/example/batchConvert/策划表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA9B46D-553F-3C4B-99F8-D974B3CB6E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE6C68A-50C8-7048-A5F8-CC03B7556D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{17ACE23F-0396-854A-ACC1-061B131E8100}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" activeTab="1" xr2:uid="{17ACE23F-0396-854A-ACC1-061B131E8100}"/>
   </bookViews>
   <sheets>
     <sheet name="itemWired" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="114">
   <si>
     <t>道具id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,10 +311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型推断仅使用于主表的属性页，自定义结构请自行填写正确类型，我不想再堆屎了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4,5,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -491,6 +487,14 @@
   </si>
   <si>
     <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我故意配错的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型推断仅使用于主表的属性页，自定义结构请自行填写正确类型，我不想努力了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -891,14 +895,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CA05FC-6E05-034A-99E0-E203D5E0B3FD}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="9" max="9" width="22.1640625" customWidth="1"/>
   </cols>
@@ -935,7 +940,7 @@
         <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -958,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1018,10 +1023,10 @@
         <v>57</v>
       </c>
       <c r="I5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s">
         <v>106</v>
-      </c>
-      <c r="K5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1041,10 +1046,18 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>1002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1058,7 +1071,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1077,13 +1090,13 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
         <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1173,7 +1186,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1190,7 +1203,7 @@
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1201,10 +1214,10 @@
         <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1218,7 +1231,7 @@
         <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1226,27 +1239,27 @@
         <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1273,13 +1286,13 @@
         <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1287,7 +1300,7 @@
         <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1301,13 +1314,13 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1315,7 +1328,7 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -1326,7 +1339,7 @@
         <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1353,7 +1366,7 @@
         <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1361,7 +1374,7 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1369,15 +1382,15 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
         <v>86</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1398,25 +1411,25 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1449,10 +1462,10 @@
         <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1460,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>10015</v>
@@ -1480,7 +1493,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>10016</v>
@@ -1500,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>43</v>
@@ -1520,7 +1533,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>112</v>
@@ -1540,7 +1553,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6">
         <v>45</v>
@@ -1560,7 +1573,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1617,7 +1630,7 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1644,13 +1657,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>0.5</v>
@@ -1658,13 +1671,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
         <v>90</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1692,13 +1705,13 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
-        <v>100</v>
-      </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1709,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1723,7 +1736,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1737,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1758,24 +1771,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -1783,10 +1796,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
         <v>93</v>
-      </c>
-      <c r="B3" t="s">
-        <v>94</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1800,7 +1813,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
